--- a/results/weights/data_weight.xlsx
+++ b/results/weights/data_weight.xlsx
@@ -5,17 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/p_f_v_beerendonk_student_tue_nl/Documents/Desktop/final project/final_thesis/experiments/v3/weights/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/p_f_v_beerendonk_student_tue_nl/Documents/Desktop/final project/final_thesis/final_thesis_partitioning/results/weights/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="424" documentId="11_F25DC773A252ABDACC104837699F7C7C5ADE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9E82559-83C4-4A0B-86B3-B989CD0CCB14}"/>
+  <xr:revisionPtr revIDLastSave="430" documentId="11_F25DC773A252ABDACC104837699F7C7C5ADE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{044A248F-21C0-40EA-BF71-75E8AAC1B4DA}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tue_logo" sheetId="1" r:id="rId1"/>
     <sheet name="propeller" sheetId="3" r:id="rId2"/>
-    <sheet name="donut" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t>util</t>
   </si>
@@ -61,22 +60,7 @@
     <t>runtime</t>
   </si>
   <si>
-    <t>WEEE WOO</t>
-  </si>
-  <si>
-    <t>Break at 12parts is on</t>
-  </si>
-  <si>
-    <t>so probably, this is just plain wrong</t>
-  </si>
-  <si>
-    <t>or model is too large for volume?</t>
-  </si>
-  <si>
     <t>MULTIPLE RUNS V V V</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
 </sst>
 </file>
@@ -414,23 +398,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="2.44140625" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -440,20 +423,20 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -463,20 +446,20 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>6</v>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.97389715736501203</v>
       </c>
       <c r="F2" s="3">
-        <v>0.97389715736501203</v>
-      </c>
-      <c r="G2" s="3">
         <v>0.86224016877661402</v>
       </c>
-      <c r="H2" s="5">
+      <c r="G2" s="5">
         <v>3653.7578358650198</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -486,20 +469,20 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>6</v>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.97389715736501203</v>
       </c>
       <c r="F3" s="3">
-        <v>0.97389715736501203</v>
-      </c>
-      <c r="G3" s="3">
         <v>0.86224016877661402</v>
       </c>
-      <c r="H3" s="5">
+      <c r="G3" s="5">
         <v>3584.0071699619202</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -509,20 +492,20 @@
       <c r="C4">
         <v>1E-4</v>
       </c>
-      <c r="E4">
+      <c r="D4">
         <v>4</v>
       </c>
+      <c r="E4" s="3">
+        <v>0.97131508852188098</v>
+      </c>
       <c r="F4" s="3">
-        <v>0.97131508852188098</v>
-      </c>
-      <c r="G4" s="3">
         <v>0.27446622103629298</v>
       </c>
-      <c r="H4" s="5">
+      <c r="G4" s="5">
         <v>2516.0680644512099</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -532,20 +515,20 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="E5">
-        <v>6</v>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.97389715736501203</v>
       </c>
       <c r="F5" s="3">
-        <v>0.97389715736501203</v>
-      </c>
-      <c r="G5" s="3">
         <v>0.86224016877661402</v>
       </c>
-      <c r="H5" s="5">
+      <c r="G5" s="5">
         <v>3575.6227102279599</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -555,20 +538,20 @@
       <c r="C6">
         <v>1E-4</v>
       </c>
-      <c r="E6">
-        <v>6</v>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.97416305109380397</v>
       </c>
       <c r="F6" s="3">
-        <v>0.97416305109380397</v>
-      </c>
-      <c r="G6" s="3">
         <v>0.30498869022916397</v>
       </c>
-      <c r="H6" s="5">
+      <c r="G6" s="5">
         <v>3675.7799034118598</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -578,20 +561,20 @@
       <c r="C7">
         <v>1E-3</v>
       </c>
-      <c r="E7">
+      <c r="D7">
         <v>4</v>
       </c>
+      <c r="E7" s="3">
+        <v>0.97131508852188098</v>
+      </c>
       <c r="F7" s="3">
-        <v>0.97131508852188098</v>
-      </c>
-      <c r="G7" s="3">
         <v>0.27446622103629298</v>
       </c>
-      <c r="H7" s="5">
+      <c r="G7" s="5">
         <v>2436.20756483078</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -601,20 +584,20 @@
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="E8">
-        <v>6</v>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.97389715736501203</v>
       </c>
       <c r="F8" s="3">
-        <v>0.97389715736501203</v>
-      </c>
-      <c r="G8" s="3">
         <v>0.86224016877661402</v>
       </c>
-      <c r="H8" s="5">
+      <c r="G8" s="5">
         <v>3658.9366443157101</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -624,20 +607,20 @@
       <c r="C9">
         <v>1E-4</v>
       </c>
-      <c r="E9">
-        <v>6</v>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.97386962864108395</v>
       </c>
       <c r="F9" s="3">
-        <v>0.97386962864108395</v>
-      </c>
-      <c r="G9" s="3">
         <v>0.48070598087238903</v>
       </c>
-      <c r="H9" s="5">
+      <c r="G9" s="5">
         <v>3582.7072198390902</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -647,20 +630,20 @@
       <c r="C10">
         <v>1E-3</v>
       </c>
-      <c r="E10">
-        <v>6</v>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.97416305109380397</v>
       </c>
       <c r="F10" s="3">
-        <v>0.97416305109380397</v>
-      </c>
-      <c r="G10" s="3">
         <v>0.30498869022916397</v>
       </c>
-      <c r="H10" s="5">
+      <c r="G10" s="5">
         <v>3509.22427821159</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -670,20 +653,20 @@
       <c r="C11">
         <v>0.01</v>
       </c>
-      <c r="E11">
+      <c r="D11">
         <v>4</v>
       </c>
+      <c r="E11" s="3">
+        <v>0.97131508852188098</v>
+      </c>
       <c r="F11" s="3">
-        <v>0.97131508852188098</v>
-      </c>
-      <c r="G11" s="3">
         <v>0.27446622103629298</v>
       </c>
-      <c r="H11" s="5">
+      <c r="G11" s="5">
         <v>2519.6604101657799</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -693,20 +676,20 @@
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="E12">
-        <v>6</v>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.97389715736501203</v>
       </c>
       <c r="F12" s="3">
-        <v>0.97389715736501203</v>
-      </c>
-      <c r="G12" s="3">
         <v>0.86224016877661402</v>
       </c>
-      <c r="H12" s="5">
+      <c r="G12" s="5">
         <v>3565.8243687152799</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -716,20 +699,20 @@
       <c r="C13">
         <v>0</v>
       </c>
-      <c r="E13">
-        <v>6</v>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.97389715736501203</v>
       </c>
       <c r="F13" s="3">
-        <v>0.97389715736501203</v>
-      </c>
-      <c r="G13" s="3">
         <v>0.86224016877661402</v>
       </c>
-      <c r="H13" s="5">
+      <c r="G13" s="5">
         <v>3563.81428289413</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -739,20 +722,20 @@
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="E14">
-        <v>6</v>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.97389715736501203</v>
       </c>
       <c r="F14" s="3">
-        <v>0.97389715736501203</v>
-      </c>
-      <c r="G14" s="3">
         <v>0.86224016877661402</v>
       </c>
-      <c r="H14" s="5">
+      <c r="G14" s="5">
         <v>3554.2772974967902</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -762,20 +745,20 @@
       <c r="C15">
         <v>1E-4</v>
       </c>
-      <c r="E15">
-        <v>6</v>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.97402432787855397</v>
       </c>
       <c r="F15" s="3">
-        <v>0.97402432787855397</v>
-      </c>
-      <c r="G15" s="3">
         <v>0.40492312207683201</v>
       </c>
-      <c r="H15" s="5">
+      <c r="G15" s="5">
         <v>3531.5790393352499</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -785,20 +768,20 @@
       <c r="C16">
         <v>1E-4</v>
       </c>
-      <c r="E16">
+      <c r="D16">
         <v>4</v>
       </c>
+      <c r="E16" s="3">
+        <v>0.98039199409877298</v>
+      </c>
       <c r="F16" s="3">
-        <v>0.98039199409877298</v>
-      </c>
-      <c r="G16" s="3">
         <v>0.18419614537915799</v>
       </c>
-      <c r="H16" s="5">
+      <c r="G16" s="5">
         <v>2291.9974608421298</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -808,20 +791,20 @@
       <c r="C17">
         <v>1E-4</v>
       </c>
-      <c r="E17">
-        <v>6</v>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.97438266426097297</v>
       </c>
       <c r="F17" s="3">
-        <v>0.97438266426097297</v>
-      </c>
-      <c r="G17" s="3">
         <v>0.29842517204345897</v>
       </c>
-      <c r="H17" s="5">
+      <c r="G17" s="5">
         <v>3500.3609049320198</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -831,23 +814,20 @@
       <c r="C18">
         <v>1E-3</v>
       </c>
-      <c r="E18">
+      <c r="D18">
         <v>4</v>
       </c>
+      <c r="E18" s="3">
+        <v>0.98039199409877298</v>
+      </c>
       <c r="F18" s="3">
-        <v>0.98039199409877298</v>
-      </c>
-      <c r="G18" s="3">
         <v>0.18419614537915799</v>
       </c>
-      <c r="H18" s="5">
+      <c r="G18" s="5">
         <v>2333.3097577095</v>
       </c>
-      <c r="I18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -857,20 +837,20 @@
       <c r="C19">
         <v>1E-3</v>
       </c>
-      <c r="E19">
-        <v>6</v>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.97438266426097297</v>
       </c>
       <c r="F19" s="3">
-        <v>0.97438266426097297</v>
-      </c>
-      <c r="G19" s="3">
         <v>0.29842517204345897</v>
       </c>
-      <c r="H19" s="5">
+      <c r="G19" s="5">
         <v>3525.7109029293001</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -880,50 +860,50 @@
       <c r="C20">
         <v>0.01</v>
       </c>
-      <c r="E20">
+      <c r="D20">
         <v>4</v>
       </c>
+      <c r="E20" s="3">
+        <v>0.98039199409877298</v>
+      </c>
       <c r="F20" s="3">
-        <v>0.98039199409877298</v>
-      </c>
-      <c r="G20" s="3">
         <v>0.18419614537915799</v>
       </c>
-      <c r="H20" s="5">
+      <c r="G20" s="5">
         <v>2334.98624467849</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1</v>
       </c>
@@ -937,7 +917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6B15C5-E4E2-4B88-B767-86BF3C3E75E2}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -1626,7 +1606,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -1654,424 +1634,6 @@
       <c r="I33" s="5">
         <f>H33/3600</f>
         <v>13.570230373409055</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC689D0-FE1A-4B8B-96D1-764CB5B844E2}">
-  <dimension ref="A1:I30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="2.44140625" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5">
-        <v>12</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0.99877380284464901</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1.04097204009109</v>
-      </c>
-      <c r="H2" s="5">
-        <v>18654.744856834401</v>
-      </c>
-      <c r="I2" s="5">
-        <f>H2/3600</f>
-        <v>5.181873571342889</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1E-4</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5">
-        <f t="shared" ref="I3:I17" si="0">H3/3600</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1E-4</v>
-      </c>
-      <c r="C4">
-        <v>1E-4</v>
-      </c>
-      <c r="E4" s="5">
-        <v>12</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.99997533398921801</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.340452459229386</v>
-      </c>
-      <c r="H4" s="5">
-        <v>20887.7067661285</v>
-      </c>
-      <c r="I4" s="5">
-        <f t="shared" si="0"/>
-        <v>5.8021407683690276</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1E-3</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>1E-3</v>
-      </c>
-      <c r="C6">
-        <v>1E-4</v>
-      </c>
-      <c r="E6" s="5">
-        <v>12</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.99997533398921801</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.340452459229386</v>
-      </c>
-      <c r="H6" s="5">
-        <v>21287.363414287502</v>
-      </c>
-      <c r="I6" s="5">
-        <f t="shared" si="0"/>
-        <v>5.9131565039687501</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>0.01</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>0.01</v>
-      </c>
-      <c r="C8">
-        <v>1E-4</v>
-      </c>
-      <c r="E8" s="5">
-        <v>12</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0.99432221210762095</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1.0681777066656699</v>
-      </c>
-      <c r="H8" s="5">
-        <v>18312.623818874301</v>
-      </c>
-      <c r="I8" s="5">
-        <f t="shared" si="0"/>
-        <v>5.086839949687306</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>0.01</v>
-      </c>
-      <c r="C9">
-        <v>1E-3</v>
-      </c>
-      <c r="E9" s="5">
-        <v>12</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0.99999999682621199</v>
-      </c>
-      <c r="G9" s="3">
-        <v>8.7163254472062399E-2</v>
-      </c>
-      <c r="H9" s="5">
-        <v>148263.06007480601</v>
-      </c>
-      <c r="I9" s="5">
-        <f t="shared" si="0"/>
-        <v>41.184183354112783</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>0.1</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>0.1</v>
-      </c>
-      <c r="C11">
-        <v>1E-4</v>
-      </c>
-      <c r="E11" s="5">
-        <v>12</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0.99426285088869204</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1.05852001066843</v>
-      </c>
-      <c r="H11" s="5">
-        <v>16908.686120748502</v>
-      </c>
-      <c r="I11" s="5">
-        <f t="shared" si="0"/>
-        <v>4.6968572557634731</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>0.1</v>
-      </c>
-      <c r="C12">
-        <v>1E-3</v>
-      </c>
-      <c r="E12" s="5">
-        <v>12</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0.99432221210762095</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1.0681777066656699</v>
-      </c>
-      <c r="H12" s="5">
-        <v>17864.402934551199</v>
-      </c>
-      <c r="I12" s="5">
-        <f t="shared" si="0"/>
-        <v>4.9623341484864438</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>0.1</v>
-      </c>
-      <c r="C13">
-        <v>0.01</v>
-      </c>
-      <c r="E13" s="5">
-        <v>12</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0.99997533398921801</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0.340452459229386</v>
-      </c>
-      <c r="H13" s="5">
-        <v>21121.621448516798</v>
-      </c>
-      <c r="I13" s="5">
-        <f t="shared" si="0"/>
-        <v>5.8671170690324441</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>0.05</v>
-      </c>
-      <c r="C14">
-        <v>1E-4</v>
-      </c>
-      <c r="E14" s="5">
-        <v>12</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0.99426285088869204</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1.05852001066843</v>
-      </c>
-      <c r="H14" s="5">
-        <v>16805.917622327801</v>
-      </c>
-      <c r="I14" s="5">
-        <f t="shared" si="0"/>
-        <v>4.6683104506466115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="I15" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="I16" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="I17" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G27" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G28" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G29" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G30" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/results/weights/data_weight.xlsx
+++ b/results/weights/data_weight.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/p_f_v_beerendonk_student_tue_nl/Documents/Desktop/final project/final_thesis/final_thesis_partitioning/results/weights/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="430" documentId="11_F25DC773A252ABDACC104837699F7C7C5ADE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{044A248F-21C0-40EA-BF71-75E8AAC1B4DA}"/>
+  <xr:revisionPtr revIDLastSave="521" documentId="11_F25DC773A252ABDACC104837699F7C7C5ADE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2146590E-CA98-4066-8876-3C1187402EF6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tue_logo" sheetId="1" r:id="rId1"/>
@@ -95,10 +95,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -107,13 +116,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,15 +410,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="7" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="18.5546875" style="3" customWidth="1"/>
@@ -420,7 +432,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -443,7 +455,7 @@
       <c r="B2">
         <v>1E-4</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="7">
         <v>0</v>
       </c>
       <c r="D2">
@@ -466,7 +478,7 @@
       <c r="B3">
         <v>1E-3</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="7">
         <v>0</v>
       </c>
       <c r="D3">
@@ -489,7 +501,7 @@
       <c r="B4">
         <v>1E-3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="7">
         <v>1E-4</v>
       </c>
       <c r="D4">
@@ -512,7 +524,7 @@
       <c r="B5">
         <v>0.01</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="7">
         <v>0</v>
       </c>
       <c r="D5">
@@ -535,7 +547,7 @@
       <c r="B6">
         <v>0.01</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="7">
         <v>1E-4</v>
       </c>
       <c r="D6">
@@ -558,7 +570,7 @@
       <c r="B7">
         <v>0.01</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="7">
         <v>1E-3</v>
       </c>
       <c r="D7">
@@ -581,7 +593,7 @@
       <c r="B8">
         <v>0.1</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="7">
         <v>0</v>
       </c>
       <c r="D8">
@@ -604,7 +616,7 @@
       <c r="B9">
         <v>0.1</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="7">
         <v>1E-4</v>
       </c>
       <c r="D9">
@@ -627,7 +639,7 @@
       <c r="B10">
         <v>0.1</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="7">
         <v>1E-3</v>
       </c>
       <c r="D10">
@@ -650,7 +662,7 @@
       <c r="B11">
         <v>0.1</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="7">
         <v>0.01</v>
       </c>
       <c r="D11">
@@ -673,7 +685,7 @@
       <c r="B12">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="7">
         <v>0</v>
       </c>
       <c r="D12">
@@ -696,7 +708,7 @@
       <c r="B13">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="7">
         <v>0</v>
       </c>
       <c r="D13">
@@ -719,7 +731,7 @@
       <c r="B14">
         <v>0.05</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="7">
         <v>0</v>
       </c>
       <c r="D14">
@@ -742,7 +754,7 @@
       <c r="B15">
         <v>0.05</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="7">
         <v>1E-4</v>
       </c>
       <c r="D15">
@@ -765,7 +777,7 @@
       <c r="B16">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="7">
         <v>1E-4</v>
       </c>
       <c r="D16">
@@ -788,7 +800,7 @@
       <c r="B17">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="7">
         <v>1E-4</v>
       </c>
       <c r="D17">
@@ -811,7 +823,7 @@
       <c r="B18">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="7">
         <v>1E-3</v>
       </c>
       <c r="D18">
@@ -834,7 +846,7 @@
       <c r="B19">
         <v>0.05</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="7">
         <v>1E-3</v>
       </c>
       <c r="D19">
@@ -857,7 +869,7 @@
       <c r="B20">
         <v>0.05</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="7">
         <v>0.01</v>
       </c>
       <c r="D20">
@@ -877,35 +889,184 @@
       <c r="A21">
         <v>1</v>
       </c>
+      <c r="B21">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0</v>
+      </c>
+      <c r="D21" s="8">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.97389715736501203</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.86224016877661402</v>
+      </c>
+      <c r="G21" s="5">
+        <v>3484.1260099411002</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
+      <c r="B22">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="D22" s="8">
+        <v>6</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.97386962864108395</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.47865946397960601</v>
+      </c>
+      <c r="G22" s="5">
+        <v>3658.1205692291201</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
+      <c r="B23">
+        <v>0.2</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="D23" s="8">
+        <v>6</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.974180655903787</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.31136263414196702</v>
+      </c>
+      <c r="G23" s="5">
+        <v>3584.6070494651699</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
+      <c r="B24">
+        <v>0.15</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="8">
+        <v>6</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.97389715736501203</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.86224016877661402</v>
+      </c>
+      <c r="G24" s="5">
+        <v>3580.9450182914702</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
+      <c r="B25">
+        <v>0.15</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="D25" s="8">
+        <v>6</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.97386962864108395</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.48081516222509002</v>
+      </c>
+      <c r="G25" s="5">
+        <v>3605.01461434364</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
+      <c r="B26">
+        <v>0.15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="D26" s="8">
+        <v>6</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.97416305109380397</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0.31639112658055901</v>
+      </c>
+      <c r="G26" s="5">
+        <v>3428.7941184043798</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1</v>
+      </c>
+      <c r="B27">
+        <v>0.15</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="D27" s="8">
+        <v>6</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.97414203236171604</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.30204808870781402</v>
+      </c>
+      <c r="G27" s="5">
+        <v>3539.7202966213199</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>0.2</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="D28" s="8">
+        <v>6</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.974432330345544</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0.30178327968052099</v>
+      </c>
+      <c r="G28" s="5">
+        <v>3491.6165182590398</v>
       </c>
     </row>
   </sheetData>
@@ -915,724 +1076,861 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6B15C5-E4E2-4B88-B767-86BF3C3E75E2}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="2.44140625" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="5"/>
+    <col min="3" max="3" width="8.88671875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="E2">
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>12</v>
       </c>
+      <c r="E2" s="3">
+        <v>0.99988403827582795</v>
+      </c>
       <c r="F2" s="3">
-        <v>0.99988403827582795</v>
-      </c>
-      <c r="G2" s="3">
         <v>1.1756679569735999</v>
       </c>
+      <c r="G2" s="5">
+        <v>116421.157269239</v>
+      </c>
       <c r="H2" s="5">
-        <v>116421.157269239</v>
-      </c>
-      <c r="I2" s="5">
-        <f>H2/3600</f>
+        <f>G2/3600</f>
         <v>32.33921035256639</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>1E-4</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>6</v>
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.99481393133643303</v>
       </c>
       <c r="F3" s="3">
-        <v>0.99481393133643303</v>
-      </c>
-      <c r="G3" s="3">
         <v>1.4506076258398499</v>
       </c>
+      <c r="G3" s="5">
+        <v>38462.421072721401</v>
+      </c>
       <c r="H3" s="5">
-        <v>38462.421072721401</v>
-      </c>
-      <c r="I3" s="5">
-        <f t="shared" ref="I3:I25" si="0">H3/3600</f>
+        <f t="shared" ref="H3:H25" si="0">G3/3600</f>
         <v>10.684005853533723</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
         <v>1E-4</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="7">
         <v>1E-4</v>
       </c>
-      <c r="E4">
+      <c r="D4">
         <v>12</v>
       </c>
+      <c r="E4" s="3">
+        <v>0.99999999682621199</v>
+      </c>
       <c r="F4" s="3">
-        <v>0.99999999682621199</v>
-      </c>
-      <c r="G4" s="3">
         <v>8.7163254472062399E-2</v>
       </c>
+      <c r="G4" s="5">
+        <v>151100.23554420401</v>
+      </c>
       <c r="H4" s="5">
-        <v>151100.23554420401</v>
-      </c>
-      <c r="I4" s="5">
         <f t="shared" si="0"/>
         <v>41.972287651167782</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
         <v>1E-3</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.99481393133643303</v>
       </c>
       <c r="F5" s="3">
-        <v>0.99481393133643303</v>
-      </c>
-      <c r="G5" s="3">
         <v>1.4506076258398499</v>
       </c>
+      <c r="G5" s="5">
+        <v>37922.536114931099</v>
+      </c>
       <c r="H5" s="5">
-        <v>37922.536114931099</v>
-      </c>
-      <c r="I5" s="5">
         <f t="shared" si="0"/>
         <v>10.534037809703083</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6">
         <v>1E-3</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="7">
         <v>1E-4</v>
       </c>
-      <c r="E6">
+      <c r="D6">
         <v>12</v>
       </c>
+      <c r="E6" s="3">
+        <v>0.99999999682621199</v>
+      </c>
       <c r="F6" s="3">
-        <v>0.99999999682621199</v>
-      </c>
-      <c r="G6" s="3">
         <v>8.7163254472062399E-2</v>
       </c>
+      <c r="G6" s="5">
+        <v>150523.537700891</v>
+      </c>
       <c r="H6" s="5">
-        <v>150523.537700891</v>
-      </c>
-      <c r="I6" s="5">
         <f t="shared" si="0"/>
         <v>41.812093805803059</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7">
         <v>0.01</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>6</v>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.99481393133643303</v>
       </c>
       <c r="F7" s="3">
-        <v>0.99481393133643303</v>
-      </c>
-      <c r="G7" s="3">
         <v>1.4506076258398499</v>
       </c>
+      <c r="G7" s="5">
+        <v>37181.214233398401</v>
+      </c>
       <c r="H7" s="5">
-        <v>37181.214233398401</v>
-      </c>
-      <c r="I7" s="5">
         <f t="shared" si="0"/>
         <v>10.32811506483289</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8">
         <v>0.01</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="7">
         <v>1E-4</v>
       </c>
-      <c r="E8">
-        <v>6</v>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.99539567117156602</v>
       </c>
       <c r="F8" s="3">
-        <v>0.99539567117156602</v>
-      </c>
-      <c r="G8" s="3">
         <v>0.60278441520747805</v>
       </c>
+      <c r="G8" s="5">
+        <v>51013.290489911997</v>
+      </c>
       <c r="H8" s="5">
-        <v>51013.290489911997</v>
-      </c>
-      <c r="I8" s="5">
         <f t="shared" si="0"/>
         <v>14.170358469419998</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9">
         <v>0.01</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="7">
         <v>1E-3</v>
       </c>
-      <c r="E9">
+      <c r="D9">
         <v>12</v>
       </c>
+      <c r="E9" s="3">
+        <v>0.99999999682621199</v>
+      </c>
       <c r="F9" s="3">
-        <v>0.99999999682621199</v>
-      </c>
-      <c r="G9" s="3">
         <v>8.7163254472062399E-2</v>
       </c>
+      <c r="G9" s="5">
+        <v>148263.06007480601</v>
+      </c>
       <c r="H9" s="5">
-        <v>148263.06007480601</v>
-      </c>
-      <c r="I9" s="5">
         <f t="shared" si="0"/>
         <v>41.184183354112783</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10">
         <v>0.1</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>6</v>
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.99481393133643303</v>
       </c>
       <c r="F10" s="3">
-        <v>0.99481393133643303</v>
-      </c>
-      <c r="G10" s="3">
         <v>1.4506076258398499</v>
       </c>
+      <c r="G10" s="5">
+        <v>38417.792123794497</v>
+      </c>
       <c r="H10" s="5">
-        <v>38417.792123794497</v>
-      </c>
-      <c r="I10" s="5">
         <f t="shared" si="0"/>
         <v>10.671608923276249</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11">
         <v>0.1</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="7">
         <v>1E-4</v>
       </c>
-      <c r="E11">
-        <v>6</v>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.99419414512200399</v>
       </c>
       <c r="F11" s="3">
-        <v>0.99419414512200399</v>
-      </c>
-      <c r="G11" s="3">
         <v>1.0821290541214099</v>
       </c>
+      <c r="G11" s="5">
+        <v>38161.639950990597</v>
+      </c>
       <c r="H11" s="5">
-        <v>38161.639950990597</v>
-      </c>
-      <c r="I11" s="5">
         <f t="shared" si="0"/>
         <v>10.600455541941832</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12">
         <v>0.1</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="7">
         <v>1E-3</v>
       </c>
-      <c r="E12">
-        <v>6</v>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.99539567117156602</v>
       </c>
       <c r="F12" s="3">
-        <v>0.99539567117156602</v>
-      </c>
-      <c r="G12" s="3">
         <v>0.60278441520747805</v>
       </c>
+      <c r="G12" s="5">
+        <v>50720.7263867855</v>
+      </c>
       <c r="H12" s="5">
-        <v>50720.7263867855</v>
-      </c>
-      <c r="I12" s="5">
         <f t="shared" si="0"/>
         <v>14.089090662995972</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13">
         <v>0.1</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="7">
         <v>0.01</v>
       </c>
-      <c r="E13">
+      <c r="D13">
         <v>12</v>
       </c>
+      <c r="E13" s="3">
+        <v>0.99999999682621199</v>
+      </c>
       <c r="F13" s="3">
-        <v>0.99999999682621199</v>
-      </c>
-      <c r="G13" s="3">
         <v>8.7163254472062399E-2</v>
       </c>
+      <c r="G13" s="5">
+        <v>151683.126220226</v>
+      </c>
       <c r="H13" s="5">
-        <v>151683.126220226</v>
-      </c>
-      <c r="I13" s="5">
         <f t="shared" si="0"/>
         <v>42.134201727840555</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>6</v>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.99481393133643303</v>
       </c>
       <c r="F14" s="3">
-        <v>0.99481393133643303</v>
-      </c>
-      <c r="G14" s="3">
         <v>1.4506076258398499</v>
       </c>
+      <c r="G14" s="5">
+        <v>37985.147054910602</v>
+      </c>
       <c r="H14" s="5">
-        <v>37985.147054910602</v>
-      </c>
-      <c r="I14" s="5">
         <f t="shared" si="0"/>
         <v>10.551429737475168</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>6</v>
+      <c r="C15" s="7">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.99481393133643303</v>
       </c>
       <c r="F15" s="3">
-        <v>0.99481393133643303</v>
-      </c>
-      <c r="G15" s="3">
         <v>1.4506076258398499</v>
       </c>
+      <c r="G15" s="5">
+        <v>37366.891859292897</v>
+      </c>
       <c r="H15" s="5">
-        <v>37366.891859292897</v>
-      </c>
-      <c r="I15" s="5">
         <f t="shared" si="0"/>
         <v>10.379692183136916</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
       <c r="B16">
         <v>0.05</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>6</v>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.99481393133643303</v>
       </c>
       <c r="F16" s="3">
-        <v>0.99481393133643303</v>
-      </c>
-      <c r="G16" s="3">
         <v>1.4506076258398499</v>
       </c>
+      <c r="G16" s="5">
+        <v>37257.457276344299</v>
+      </c>
       <c r="H16" s="5">
-        <v>37257.457276344299</v>
-      </c>
-      <c r="I16" s="5">
         <f t="shared" si="0"/>
         <v>10.349293687873416</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
       <c r="B17">
         <v>0.05</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="7">
         <v>1E-4</v>
       </c>
-      <c r="E17">
-        <v>6</v>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.99527453163197399</v>
       </c>
       <c r="F17" s="3">
-        <v>0.99527453163197399</v>
-      </c>
-      <c r="G17" s="3">
         <v>0.63162764311531305</v>
       </c>
+      <c r="G17" s="5">
+        <v>38573.116554975502</v>
+      </c>
       <c r="H17" s="5">
-        <v>38573.116554975502</v>
-      </c>
-      <c r="I17" s="5">
         <f t="shared" si="0"/>
         <v>10.714754598604307</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18">
         <v>1E-3</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="7">
         <v>1E-3</v>
       </c>
-      <c r="E18">
+      <c r="D18">
         <v>12</v>
       </c>
+      <c r="E18" s="3">
+        <v>0.99999999682621199</v>
+      </c>
       <c r="F18" s="3">
-        <v>0.99999999682621199</v>
-      </c>
-      <c r="G18" s="3">
         <v>8.7163254472062399E-2</v>
       </c>
+      <c r="G18" s="5">
+        <v>149407.68112873999</v>
+      </c>
       <c r="H18" s="5">
-        <v>149407.68112873999</v>
-      </c>
-      <c r="I18" s="5">
         <f t="shared" si="0"/>
         <v>41.502133646872217</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="B19">
         <v>0.01</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="7">
         <v>0.01</v>
       </c>
-      <c r="E19">
+      <c r="D19">
         <v>12</v>
       </c>
+      <c r="E19" s="3">
+        <v>0.99999999682621199</v>
+      </c>
       <c r="F19" s="3">
-        <v>0.99999999682621199</v>
-      </c>
-      <c r="G19" s="3">
         <v>8.7163254472062399E-2</v>
       </c>
+      <c r="G19" s="5">
+        <v>150062.99289703299</v>
+      </c>
       <c r="H19" s="5">
-        <v>150062.99289703299</v>
-      </c>
-      <c r="I19" s="5">
         <f t="shared" si="0"/>
         <v>41.684164693620275</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="B20">
         <v>0.1</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="7">
         <v>0.1</v>
       </c>
-      <c r="E20">
+      <c r="D20">
         <v>12</v>
       </c>
+      <c r="E20" s="3">
+        <v>0.99999999682621199</v>
+      </c>
       <c r="F20" s="3">
-        <v>0.99999999682621199</v>
-      </c>
-      <c r="G20" s="3">
         <v>8.7163254472062399E-2</v>
       </c>
+      <c r="G20" s="5">
+        <v>151522.079094171</v>
+      </c>
       <c r="H20" s="5">
-        <v>151522.079094171</v>
-      </c>
-      <c r="I20" s="5">
         <f t="shared" si="0"/>
         <v>42.089466415047497</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="B21">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="7">
         <v>1E-4</v>
       </c>
-      <c r="E21">
+      <c r="D21">
         <v>12</v>
       </c>
+      <c r="E21" s="3">
+        <v>0.99999999682621199</v>
+      </c>
       <c r="F21" s="3">
-        <v>0.99999999682621199</v>
-      </c>
-      <c r="G21" s="3">
         <v>8.7163254472062399E-2</v>
       </c>
+      <c r="G21" s="5">
+        <v>150762.83102941501</v>
+      </c>
       <c r="H21" s="5">
-        <v>150762.83102941501</v>
-      </c>
-      <c r="I21" s="5">
         <f t="shared" si="0"/>
         <v>41.878564174837507</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
       <c r="B22">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="7">
         <v>1E-4</v>
       </c>
-      <c r="E22">
+      <c r="D22">
         <v>12</v>
       </c>
+      <c r="E22" s="3">
+        <v>0.99999999682632801</v>
+      </c>
       <c r="F22" s="3">
-        <v>0.99999999682632801</v>
-      </c>
-      <c r="G22" s="3">
         <v>9.0718202881083801E-2</v>
       </c>
+      <c r="G22" s="5">
+        <v>147963.22053480099</v>
+      </c>
       <c r="H22" s="5">
-        <v>147963.22053480099</v>
-      </c>
-      <c r="I22" s="5">
         <f t="shared" si="0"/>
         <v>41.100894593000277</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
       <c r="B23">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="7">
         <v>1E-3</v>
       </c>
-      <c r="E23">
+      <c r="D23">
         <v>12</v>
       </c>
+      <c r="E23" s="3">
+        <v>0.99999999682621199</v>
+      </c>
       <c r="F23" s="3">
-        <v>0.99999999682621199</v>
-      </c>
-      <c r="G23" s="3">
         <v>8.7163254472062399E-2</v>
       </c>
+      <c r="G23" s="5">
+        <v>150949.16822195001</v>
+      </c>
       <c r="H23" s="5">
-        <v>150949.16822195001</v>
-      </c>
-      <c r="I23" s="5">
         <f t="shared" si="0"/>
         <v>41.930324506097222</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24">
         <v>0.05</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="7">
         <v>1E-3</v>
       </c>
-      <c r="E24">
+      <c r="D24">
         <v>12</v>
       </c>
+      <c r="E24" s="3">
+        <v>0.99999999682632801</v>
+      </c>
       <c r="F24" s="3">
-        <v>0.99999999682632801</v>
-      </c>
-      <c r="G24" s="3">
         <v>9.0718202881083801E-2</v>
       </c>
+      <c r="G24" s="5">
+        <v>147830.535271167</v>
+      </c>
       <c r="H24" s="5">
-        <v>147830.535271167</v>
-      </c>
-      <c r="I24" s="5">
         <f t="shared" si="0"/>
         <v>41.064037575324164</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
       <c r="B25">
         <v>0.05</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="7">
         <v>0.01</v>
       </c>
-      <c r="E25">
+      <c r="D25">
         <v>12</v>
       </c>
+      <c r="E25" s="3">
+        <v>0.99999999682621199</v>
+      </c>
       <c r="F25" s="3">
-        <v>0.99999999682621199</v>
-      </c>
-      <c r="G25" s="3">
         <v>8.7163254472062399E-2</v>
       </c>
+      <c r="G25" s="5">
+        <v>150860.28748178401</v>
+      </c>
       <c r="H25" s="5">
-        <v>150860.28748178401</v>
-      </c>
-      <c r="I25" s="5">
         <f t="shared" si="0"/>
         <v>41.905635411606667</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>0.2</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="8">
+        <v>6</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.99481393133643303</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1.4506076258398499</v>
+      </c>
+      <c r="G26" s="5">
+        <v>36862.7296373844</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>0.2</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="D27" s="8">
+        <v>6</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.99419414512200399</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1.1082445722838901</v>
+      </c>
+      <c r="G27" s="5">
+        <v>36784.677515983502</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>0.2</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="D28" s="8">
+        <v>6</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.99527453163197399</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0.63162764311531305</v>
+      </c>
+      <c r="G28" s="5">
+        <v>39230.089813947598</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>0.15</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0</v>
+      </c>
+      <c r="D29" s="8">
+        <v>6</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.99481393133643303</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1.4506076258398499</v>
+      </c>
+      <c r="G29" s="5">
+        <v>37985.689654827103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>0.15</v>
+      </c>
+      <c r="C30" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="D30" s="8">
+        <v>6</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.99419414512200399</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1.1082445722838901</v>
+      </c>
+      <c r="G30" s="5">
+        <v>36685.170026779102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>0.15</v>
+      </c>
+      <c r="C31" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="D31" s="8">
+        <v>6</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.99527453163197399</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0.63162764311531305</v>
+      </c>
+      <c r="G31" s="5">
+        <v>38929.214878082203</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
         <v>0.1</v>
       </c>
-      <c r="C33">
+      <c r="C39" s="7">
         <v>1E-3</v>
       </c>
-      <c r="E33">
-        <v>6</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="D39">
+        <v>6</v>
+      </c>
+      <c r="E39" s="3">
         <v>0.99539567117156602</v>
       </c>
-      <c r="G33" s="3">
+      <c r="F39" s="3">
         <v>0.60278441520747805</v>
       </c>
-      <c r="H33" s="5">
+      <c r="G39" s="5">
         <v>48852.829344272599</v>
       </c>
-      <c r="I33" s="5">
-        <f>H33/3600</f>
+      <c r="H39" s="5">
+        <f>G39/3600</f>
         <v>13.570230373409055</v>
       </c>
     </row>

--- a/results/weights/data_weight.xlsx
+++ b/results/weights/data_weight.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/p_f_v_beerendonk_student_tue_nl/Documents/Desktop/final project/final_thesis/final_thesis_partitioning/results/weights/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="521" documentId="11_F25DC773A252ABDACC104837699F7C7C5ADE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2146590E-CA98-4066-8876-3C1187402EF6}"/>
+  <xr:revisionPtr revIDLastSave="571" documentId="11_F25DC773A252ABDACC104837699F7C7C5ADE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25330ABF-7DBB-4F6A-B9CF-6595447A0201}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tue_logo" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -112,11 +112,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -125,7 +145,14 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,7 +439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
@@ -895,7 +922,7 @@
       <c r="C21" s="7">
         <v>0</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21">
         <v>6</v>
       </c>
       <c r="E21" s="3">
@@ -918,7 +945,7 @@
       <c r="C22" s="7">
         <v>1E-4</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22">
         <v>6</v>
       </c>
       <c r="E22" s="3">
@@ -941,7 +968,7 @@
       <c r="C23" s="7">
         <v>1E-3</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23">
         <v>6</v>
       </c>
       <c r="E23" s="3">
@@ -964,7 +991,7 @@
       <c r="C24" s="7">
         <v>0</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24">
         <v>6</v>
       </c>
       <c r="E24" s="3">
@@ -987,7 +1014,7 @@
       <c r="C25" s="7">
         <v>1E-4</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25">
         <v>6</v>
       </c>
       <c r="E25" s="3">
@@ -1010,7 +1037,7 @@
       <c r="C26" s="7">
         <v>1E-3</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26">
         <v>6</v>
       </c>
       <c r="E26" s="3">
@@ -1033,7 +1060,7 @@
       <c r="C27" s="7">
         <v>0.01</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27">
         <v>6</v>
       </c>
       <c r="E27" s="3">
@@ -1056,7 +1083,7 @@
       <c r="C28" s="7">
         <v>0.01</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28">
         <v>6</v>
       </c>
       <c r="E28" s="3">
@@ -1076,10 +1103,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6B15C5-E4E2-4B88-B767-86BF3C3E75E2}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1166,7 +1193,7 @@
         <v>38462.421072721401</v>
       </c>
       <c r="H3" s="5">
-        <f t="shared" ref="H3:H25" si="0">G3/3600</f>
+        <f t="shared" ref="H3:H31" si="0">G3/3600</f>
         <v>10.684005853533723</v>
       </c>
     </row>
@@ -1769,12 +1796,12 @@
         <v>1</v>
       </c>
       <c r="B26">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26">
         <v>6</v>
       </c>
       <c r="E26" s="3">
@@ -1784,7 +1811,11 @@
         <v>1.4506076258398499</v>
       </c>
       <c r="G26" s="5">
-        <v>36862.7296373844</v>
+        <v>37985.689654827103</v>
+      </c>
+      <c r="H26" s="5">
+        <f t="shared" si="0"/>
+        <v>10.551580459674195</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1792,12 +1823,12 @@
         <v>1</v>
       </c>
       <c r="B27">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="C27" s="7">
         <v>1E-4</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27">
         <v>6</v>
       </c>
       <c r="E27" s="3">
@@ -1807,7 +1838,11 @@
         <v>1.1082445722838901</v>
       </c>
       <c r="G27" s="5">
-        <v>36784.677515983502</v>
+        <v>36685.170026779102</v>
+      </c>
+      <c r="H27" s="5">
+        <f t="shared" si="0"/>
+        <v>10.19032500743864</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1815,12 +1850,12 @@
         <v>1</v>
       </c>
       <c r="B28">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="C28" s="7">
         <v>1E-3</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28">
         <v>6</v>
       </c>
       <c r="E28" s="3">
@@ -1830,7 +1865,11 @@
         <v>0.63162764311531305</v>
       </c>
       <c r="G28" s="5">
-        <v>39230.089813947598</v>
+        <v>38929.214878082203</v>
+      </c>
+      <c r="H28" s="5">
+        <f t="shared" si="0"/>
+        <v>10.813670799467278</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1841,19 +1880,23 @@
         <v>0.15</v>
       </c>
       <c r="C29" s="7">
-        <v>0</v>
-      </c>
-      <c r="D29" s="8">
-        <v>6</v>
+        <v>0.01</v>
+      </c>
+      <c r="D29" s="12">
+        <v>12</v>
       </c>
       <c r="E29" s="3">
-        <v>0.99481393133643303</v>
+        <v>0.99999999682621199</v>
       </c>
       <c r="F29" s="3">
-        <v>1.4506076258398499</v>
+        <v>8.7163254472062399E-2</v>
       </c>
       <c r="G29" s="5">
-        <v>37985.689654827103</v>
+        <v>150280.574851274</v>
+      </c>
+      <c r="H29" s="5">
+        <f t="shared" si="0"/>
+        <v>41.744604125353888</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1864,73 +1907,250 @@
         <v>0.15</v>
       </c>
       <c r="C30" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D30" s="12">
+        <v>12</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.99999999682621199</v>
+      </c>
+      <c r="F30" s="3">
+        <v>8.7163254472062399E-2</v>
+      </c>
+      <c r="G30" s="5">
+        <v>152793.01525378201</v>
+      </c>
+      <c r="H30" s="5">
+        <f t="shared" si="0"/>
+        <v>42.442504237161671</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8">
+        <v>1</v>
+      </c>
+      <c r="B31" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="C31" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="D31" s="8">
+        <v>12</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0.99999999682621199</v>
+      </c>
+      <c r="F31" s="10">
+        <v>8.7163254472062399E-2</v>
+      </c>
+      <c r="G31" s="11">
+        <v>153413.288366794</v>
+      </c>
+      <c r="H31" s="11">
+        <f t="shared" si="0"/>
+        <v>42.614802324109448</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="13">
+        <v>1</v>
+      </c>
+      <c r="B32" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="13">
+        <v>6</v>
+      </c>
+      <c r="E32" s="14">
+        <v>0.99481393133643303</v>
+      </c>
+      <c r="F32" s="14">
+        <v>1.4506076258398499</v>
+      </c>
+      <c r="G32" s="15">
+        <v>36862.7296373844</v>
+      </c>
+      <c r="H32" s="15">
+        <f>G32/3600</f>
+        <v>10.239647121495667</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="13">
+        <v>1</v>
+      </c>
+      <c r="B33" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="C33" s="7">
         <v>1E-4</v>
       </c>
-      <c r="D30" s="8">
-        <v>6</v>
-      </c>
-      <c r="E30" s="3">
+      <c r="D33" s="13">
+        <v>6</v>
+      </c>
+      <c r="E33" s="14">
         <v>0.99419414512200399</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F33" s="14">
         <v>1.1082445722838901</v>
       </c>
-      <c r="G30" s="5">
-        <v>36685.170026779102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31">
+      <c r="G33" s="15">
+        <v>36784.677515983502</v>
+      </c>
+      <c r="H33" s="15">
+        <f>G33/3600</f>
+        <v>10.217965976662084</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="13">
+        <v>1</v>
+      </c>
+      <c r="B34" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="D34" s="13">
+        <v>6</v>
+      </c>
+      <c r="E34" s="14">
+        <v>0.99527453163197399</v>
+      </c>
+      <c r="F34" s="14">
+        <v>0.63162764311531305</v>
+      </c>
+      <c r="G34" s="15">
+        <v>39230.089813947598</v>
+      </c>
+      <c r="H34" s="15">
+        <f>G34/3600</f>
+        <v>10.897247170541</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="13">
+        <v>1</v>
+      </c>
+      <c r="B35" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="C35" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="D35" s="12">
+        <v>12</v>
+      </c>
+      <c r="E35" s="14">
+        <v>0.99999999682621199</v>
+      </c>
+      <c r="F35" s="14">
+        <v>8.7163254472062399E-2</v>
+      </c>
+      <c r="G35" s="15">
+        <v>151597.64945816901</v>
+      </c>
+      <c r="H35" s="15">
+        <f t="shared" ref="H35:H37" si="1">G35/3600</f>
+        <v>42.110458182824722</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="13">
+        <v>1</v>
+      </c>
+      <c r="B36" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D36" s="12">
+        <v>12</v>
+      </c>
+      <c r="E36" s="14">
+        <v>0.99999999682621199</v>
+      </c>
+      <c r="F36" s="14">
+        <v>8.7163254472062399E-2</v>
+      </c>
+      <c r="G36" s="15">
+        <v>153256.747160434</v>
+      </c>
+      <c r="H36" s="15">
+        <f t="shared" si="1"/>
+        <v>42.571318655676109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="13">
+        <v>1</v>
+      </c>
+      <c r="B37" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="C37" s="7">
         <v>0.15</v>
       </c>
-      <c r="C31" s="7">
+      <c r="D37" s="12">
+        <v>12</v>
+      </c>
+      <c r="E37" s="14">
+        <v>0.99999999682621199</v>
+      </c>
+      <c r="F37" s="14">
+        <v>8.7163254472062399E-2</v>
+      </c>
+      <c r="G37" s="15">
+        <v>151827.11433005301</v>
+      </c>
+      <c r="H37" s="15">
+        <f t="shared" si="1"/>
+        <v>42.174198425014723</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="7"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>0.1</v>
+      </c>
+      <c r="C43" s="7">
         <v>1E-3</v>
       </c>
-      <c r="D31" s="8">
-        <v>6</v>
-      </c>
-      <c r="E31" s="3">
-        <v>0.99527453163197399</v>
-      </c>
-      <c r="F31" s="3">
-        <v>0.63162764311531305</v>
-      </c>
-      <c r="G31" s="5">
-        <v>38929.214878082203</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="B39">
-        <v>0.1</v>
-      </c>
-      <c r="C39" s="7">
-        <v>1E-3</v>
-      </c>
-      <c r="D39">
-        <v>6</v>
-      </c>
-      <c r="E39" s="3">
+      <c r="D43">
+        <v>6</v>
+      </c>
+      <c r="E43" s="3">
         <v>0.99539567117156602</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F43" s="3">
         <v>0.60278441520747805</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G43" s="5">
         <v>48852.829344272599</v>
       </c>
-      <c r="H39" s="5">
-        <f>G39/3600</f>
+      <c r="H43" s="5">
+        <f>G43/3600</f>
         <v>13.570230373409055</v>
       </c>
     </row>
